--- a/read me.xlsx
+++ b/read me.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Code\Unity\comp-3770-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349BE603-1D56-47B1-9C9A-4D187CC7EF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AFB24-1C40-4832-B424-8DFC5D539B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3645" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2ADC3FCF-CCF9-49D6-B6E7-A871AFAD5DC6}"/>
+    <workbookView xWindow="-28920" yWindow="3645" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2ADC3FCF-CCF9-49D6-B6E7-A871AFAD5DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="NavMesh" sheetId="1" r:id="rId1"/>
     <sheet name="Lobby" sheetId="2" r:id="rId2"/>
+    <sheet name="Map teleport" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>bake means pre-calculate way points from a 3D mesh</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,12 +206,83 @@
     <t>( only a contingency plan, it works but not tested extensively )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1. drag prefab into the scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. it will create a pair of A B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. move them around as you want to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special layer -&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area size = collider's radius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min teleport cooldown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot change pair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique names (for eyeball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if you delete 1, you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete the other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit_only = cannot go back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">( you can use it as a switch ) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gizmos = draw line between AB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +377,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <scheme val="minor"/>
@@ -1085,6 +1162,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B9418D-FA63-16F9-ADF8-202A890C8E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4199164" y="673555"/>
+          <a:ext cx="3697958" cy="3061227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30893</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3FD1BF-C31A-14EB-8FA9-9489196A2A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="6345011"/>
+          <a:ext cx="3201356" cy="2303406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>687161</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40377</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>18384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D4FDE9-C704-17D0-14AF-63BD4C9174F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3858986" y="9371241"/>
+          <a:ext cx="3525166" cy="5306118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>48434</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>192883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC0862A-2652-00B8-BCC2-1CBC71A14059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="15233196"/>
+          <a:ext cx="4382312" cy="2704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>46263</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103416</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F1C315-205D-D53F-D5C9-26D1995138C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4608738" y="4295774"/>
+          <a:ext cx="3532416" cy="711865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1487,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D0697-1635-4141-8371-FBF7C7C1C9AF}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
@@ -1586,4 +1888,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66297B5-D8AD-4A9D-ACD5-58CB0E507482}">
+  <dimension ref="B3:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.149999999999999"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1"/>
+      <c r="C39"/>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="1"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1"/>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="1"/>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="1"/>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="1"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="1"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="1"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="1"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="1"/>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="1"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="1"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1"/>
+      <c r="C58"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/read me.xlsx
+++ b/read me.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Code\Unity\comp-3770-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AFB24-1C40-4832-B424-8DFC5D539B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A155A7-2F9A-4045-BF4C-B126E10D56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3645" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2ADC3FCF-CCF9-49D6-B6E7-A871AFAD5DC6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{2ADC3FCF-CCF9-49D6-B6E7-A871AFAD5DC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="NavMesh" sheetId="1" r:id="rId1"/>
-    <sheet name="Lobby" sheetId="2" r:id="rId2"/>
-    <sheet name="Map teleport" sheetId="3" r:id="rId3"/>
+    <sheet name="Howto Spawn Player" sheetId="4" r:id="rId1"/>
+    <sheet name="NavMesh" sheetId="1" r:id="rId2"/>
+    <sheet name="Lobby" sheetId="2" r:id="rId3"/>
+    <sheet name="Map teleport" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1683,6 +1684,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8793909-30B0-4433-A1E6-944255CB4131}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DBAE8A-B62B-44B8-9E77-443E29760446}">
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -1785,7 +1801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D0697-1635-4141-8371-FBF7C7C1C9AF}">
   <dimension ref="A1:D102"/>
   <sheetViews>
@@ -1890,12 +1906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66297B5-D8AD-4A9D-ACD5-58CB0E507482}">
   <dimension ref="B3:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.149999999999999"/>

--- a/read me.xlsx
+++ b/read me.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Code\Unity\comp-3770-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A155A7-2F9A-4045-BF4C-B126E10D56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B0345-4455-4C08-9309-9CEFFF1FBF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{2ADC3FCF-CCF9-49D6-B6E7-A871AFAD5DC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Howto Spawn Player" sheetId="4" r:id="rId1"/>
+    <sheet name="QuickStart" sheetId="4" r:id="rId1"/>
     <sheet name="NavMesh" sheetId="1" r:id="rId2"/>
     <sheet name="Lobby" sheetId="2" r:id="rId3"/>
     <sheet name="Map teleport" sheetId="3" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>bake means pre-calculate way points from a 3D mesh</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,12 +278,164 @@
     <t>Gizmos = draw line between AB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Spawn Player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(b) grab them from prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a) copy 3 object from this scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quicker test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn on QuickStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything damage-able require a HPComponent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavAgent on AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. AI has an agent as child</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. when game start, those Agent deteach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. AIBrain will try to follow Agent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavAgent is non-physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI collider is physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>this setup allow us to have the best of both world</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup enemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>child order matters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state priority = child order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's a state machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg. In the picture, LazerBeam &gt; NormalAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn there is no universal solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>( good for prototype, but messy )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>every ProjectileLauncher has a input key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if you want to use a key, disable conflict objects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a quick start, copy from scene / grab prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawned after connect / host a game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>it will skip lobby &amp; start host</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>most finished part of the game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a good reference for other attack-thinging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 manager (launcher)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 data class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 script is attach to every bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +539,21 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -416,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +617,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,6 +644,369 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665064</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>194314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91FDB05-EBBF-A01F-D86F-DDB23CC86267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978730" y="609600"/>
+          <a:ext cx="2619048" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>618567</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB30C85F-33EF-A400-8B4D-C109472A0574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6961414" y="604156"/>
+          <a:ext cx="4466667" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>237357</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>70276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B029C1-1A1D-F051-D91C-C25E0F6939CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904014" y="4408714"/>
+          <a:ext cx="6142857" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>59875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16467</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD237C0-FACF-4553-C88B-F63323638DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4844143" y="9013375"/>
+          <a:ext cx="5285153" cy="3837315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63219</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>157702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3000AE-4F0E-D56B-BAB8-3C21BAA67702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4996543" y="14363702"/>
+          <a:ext cx="5876190" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484415</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138052</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC97D1C1-ECFF-5499-72C9-906B4E5FF614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4327072" y="13340442"/>
+          <a:ext cx="5923809" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669470</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>563489</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>122799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56EB8A8-8E68-19C3-D260-33DE01855F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4512127" y="22620513"/>
+          <a:ext cx="9647619" cy="8200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407897</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>82909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB77E711-A62A-9EC7-B23F-9CD05E8149A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698173" y="25167771"/>
+          <a:ext cx="2552381" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -645,10 +1184,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59873</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36483</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>59733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E349543-81E5-D3DC-B5AA-35987F6ECD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4239987" y="20459700"/>
+          <a:ext cx="2066667" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1163,7 +1746,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1685,24 +2268,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8793909-30B0-4433-A1E6-944255CB4131}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.149999999999999"/>
+  <cols>
+    <col min="3" max="3" width="4.7109375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="D68" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="D82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="D85" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="D90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="D96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DBAE8A-B62B-44B8-9E77-443E29760446}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <sheetData>
@@ -1765,34 +2505,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="2:5">
       <c r="C97" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="2:5">
       <c r="C99" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="2:5">
       <c r="C100" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="3:5" ht="20.149999999999999">
+    <row r="104" spans="2:5" ht="20.149999999999999">
       <c r="C104" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="2:5">
       <c r="C105" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
+    </row>
+    <row r="110" spans="2:5" ht="22.75">
+      <c r="B110" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
